--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/47.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/47.xlsx
@@ -479,13 +479,13 @@
         <v>0.051020064481413</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.936260800399647</v>
+        <v>-1.936097275013465</v>
       </c>
       <c r="F2" t="n">
-        <v>0.391999047575546</v>
+        <v>0.3928268948430912</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2313787051745594</v>
+        <v>-0.2311640781051958</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.08471784988991139</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.949409263482325</v>
+        <v>-1.94923186763928</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3101633520801134</v>
+        <v>0.3112613082444767</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2112899034917466</v>
+        <v>-0.2109570125270194</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1108977977792232</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.021864149993669</v>
+        <v>-2.020477834331352</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2812310391106666</v>
+        <v>0.2831174212441206</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2284527688003783</v>
+        <v>-0.2281023572585602</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1217608208591731</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.082596310383108</v>
+        <v>-2.082630621513244</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2581564390819455</v>
+        <v>0.259444201498127</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2342491597212859</v>
+        <v>-0.234567450205104</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1155767423471887</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.047396740983435</v>
+        <v>-2.048562589384026</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2432989897088586</v>
+        <v>0.24495614429204</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2220854990759255</v>
+        <v>-0.2221906225384709</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.09683167897169762</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.909427306560882</v>
+        <v>-1.912326232045381</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2629380965796715</v>
+        <v>0.263250546871126</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2094152017430198</v>
+        <v>-0.2093903809254744</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.07662180561468014</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.637591902875273</v>
+        <v>-1.640936873051545</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2638769075021258</v>
+        <v>0.2627044888851262</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1876283641304802</v>
+        <v>-0.1864442651287533</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.06665431793032962</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.261734642928828</v>
+        <v>-1.264561296032827</v>
       </c>
       <c r="F9" t="n">
-        <v>0.246826465896494</v>
+        <v>0.2463227493051305</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1311639243107681</v>
+        <v>-0.1293724453032231</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.07730087486621649</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7775578751659582</v>
+        <v>-0.7790836254209578</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2717976683953055</v>
+        <v>0.2712676709383057</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03060165200134055</v>
+        <v>-0.02883791390752284</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1148630399978173</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2454156075205556</v>
+        <v>-0.2457061570906464</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1606515074748808</v>
+        <v>0.1622327395573349</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05718665956072679</v>
+        <v>0.05919422568572625</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1833385503198083</v>
       </c>
       <c r="E12" t="n">
-        <v>0.425915964727355</v>
+        <v>0.4245771006279918</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03826589635064095</v>
+        <v>0.04019753997491317</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1550858041523369</v>
+        <v>0.1574934234542453</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2835112863143683</v>
       </c>
       <c r="E13" t="n">
-        <v>1.106496941631172</v>
+        <v>1.107444512842172</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1252025479555879</v>
+        <v>-0.1236110955364974</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2889926547619373</v>
+        <v>0.290579727036755</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4125534234721055</v>
       </c>
       <c r="E14" t="n">
-        <v>1.825150132553525</v>
+        <v>1.825103411014616</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3539453622620719</v>
+        <v>-0.3495695981336185</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4345813501468982</v>
+        <v>0.4365845361276249</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5681904510118858</v>
       </c>
       <c r="E15" t="n">
-        <v>2.531195808210881</v>
+        <v>2.530892118207972</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6248558254820901</v>
+        <v>-0.620252293851455</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6233699484456656</v>
+        <v>0.6249789214418471</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7468360053677204</v>
       </c>
       <c r="E16" t="n">
-        <v>3.205129186156791</v>
+        <v>3.204143653695427</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9408058522104598</v>
+        <v>-0.9376390079012789</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7798316219636237</v>
+        <v>0.7811646458706233</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9443054145989386</v>
       </c>
       <c r="E17" t="n">
-        <v>3.863951066361795</v>
+        <v>3.862810768802796</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.203907978240298</v>
+        <v>-1.198315994052118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9780521309296614</v>
+        <v>0.9795194792610246</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.154243026496159</v>
       </c>
       <c r="E18" t="n">
-        <v>4.403002281573378</v>
+        <v>4.402546746569015</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.561564278685475</v>
+        <v>-1.556773860899203</v>
       </c>
       <c r="G18" t="n">
-        <v>1.17756040231188</v>
+        <v>1.178864225257062</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.367581115973524</v>
       </c>
       <c r="E19" t="n">
-        <v>4.931145477497782</v>
+        <v>4.9313352837496</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.848452778188352</v>
+        <v>-1.841637273699991</v>
       </c>
       <c r="G19" t="n">
-        <v>1.378084867165372</v>
+        <v>1.37777679701819</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.571573148512907</v>
       </c>
       <c r="E20" t="n">
-        <v>5.293949907511503</v>
+        <v>5.294031670204594</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.168932604118766</v>
+        <v>-2.161964524604905</v>
       </c>
       <c r="G20" t="n">
-        <v>1.586943286521771</v>
+        <v>1.586868824069134</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.75391411788963</v>
       </c>
       <c r="E21" t="n">
-        <v>5.60269897705551</v>
+        <v>5.604021780625874</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.487322371207044</v>
+        <v>-2.479736691350728</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768765995378813</v>
+        <v>1.767964428976904</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.903955615249078</v>
       </c>
       <c r="E22" t="n">
-        <v>5.842494355410174</v>
+        <v>5.842798045413082</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.797703044492643</v>
+        <v>-2.790050932448191</v>
       </c>
       <c r="G22" t="n">
-        <v>1.895489409381142</v>
+        <v>1.895360925149142</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.015861449898885</v>
       </c>
       <c r="E23" t="n">
-        <v>5.997332455451041</v>
+        <v>5.99594832986086</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.047525303111621</v>
+        <v>-3.040438229678351</v>
       </c>
       <c r="G23" t="n">
-        <v>2.015414839472201</v>
+        <v>2.014782638648838</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.088142488466974</v>
       </c>
       <c r="E24" t="n">
-        <v>6.086681558422289</v>
+        <v>6.085855171202835</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.280794996523968</v>
+        <v>-3.274624103267742</v>
       </c>
       <c r="G24" t="n">
-        <v>2.118526355748355</v>
+        <v>2.117419639295446</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.120555431277244</v>
       </c>
       <c r="E25" t="n">
-        <v>6.102731867085649</v>
+        <v>6.100695099998831</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.456627858088057</v>
+        <v>-3.450297089565877</v>
       </c>
       <c r="G25" t="n">
-        <v>2.17178160986425</v>
+        <v>2.172172902752613</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.114931876982267</v>
       </c>
       <c r="E26" t="n">
-        <v>6.049298487102663</v>
+        <v>6.047688054058391</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.623800444400921</v>
+        <v>-3.616843315247741</v>
       </c>
       <c r="G26" t="n">
-        <v>2.198104816895243</v>
+        <v>2.198941424451334</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.072833549977725</v>
       </c>
       <c r="E27" t="n">
-        <v>5.944943009853055</v>
+        <v>5.944605738744055</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.714271594330033</v>
+        <v>-3.706655253463808</v>
       </c>
       <c r="G27" t="n">
-        <v>2.202739009535787</v>
+        <v>2.20200460534606</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.996875706654543</v>
       </c>
       <c r="E28" t="n">
-        <v>5.871971266317529</v>
+        <v>5.87181212107562</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.779938717266743</v>
+        <v>-3.773082331431836</v>
       </c>
       <c r="G28" t="n">
-        <v>2.209126719933513</v>
+        <v>2.208974874932058</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.891462225722754</v>
       </c>
       <c r="E29" t="n">
-        <v>5.674267614375673</v>
+        <v>5.674661827360218</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.820001706857232</v>
+        <v>-3.812610943421052</v>
       </c>
       <c r="G29" t="n">
-        <v>2.209348647243331</v>
+        <v>2.208760247862695</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.764637401731065</v>
       </c>
       <c r="E30" t="n">
-        <v>5.462849730715911</v>
+        <v>5.463467331058366</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.851107301409996</v>
+        <v>-3.841611148626726</v>
       </c>
       <c r="G30" t="n">
-        <v>2.163694403488706</v>
+        <v>2.163054902424888</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.624552548189719</v>
       </c>
       <c r="E31" t="n">
-        <v>5.182876748995623</v>
+        <v>5.184358697807895</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.746227666895752</v>
+        <v>-3.737541110778891</v>
       </c>
       <c r="G31" t="n">
-        <v>2.082233940352638</v>
+        <v>2.081223587073729</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.479193397072425</v>
       </c>
       <c r="E32" t="n">
-        <v>4.877833281506342</v>
+        <v>4.878611487138795</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.665685574008864</v>
+        <v>-3.656279214183185</v>
       </c>
       <c r="G32" t="n">
-        <v>1.935989683374859</v>
+        <v>1.93533266173395</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.334842244093589</v>
       </c>
       <c r="E33" t="n">
-        <v>4.596343309819598</v>
+        <v>4.597382864060326</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.526610883181493</v>
+        <v>-3.518370371756404</v>
       </c>
       <c r="G33" t="n">
-        <v>1.843517537537156</v>
+        <v>1.843028421426702</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.195004354207345</v>
       </c>
       <c r="E34" t="n">
-        <v>4.263967742068506</v>
+        <v>4.264829170442143</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.40977272477866</v>
+        <v>-3.403328072505389</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7153691165981</v>
+        <v>1.716405750742645</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.06344656660825</v>
       </c>
       <c r="E35" t="n">
-        <v>3.923008551590962</v>
+        <v>3.922253706727961</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.29160446256501</v>
+        <v>-3.285073667454376</v>
       </c>
       <c r="G35" t="n">
-        <v>1.604770473711766</v>
+        <v>1.60450328491113</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9418229261527832</v>
       </c>
       <c r="E36" t="n">
-        <v>3.590155548114142</v>
+        <v>3.588206383912778</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.167339769547771</v>
+        <v>-3.160859346096273</v>
       </c>
       <c r="G36" t="n">
-        <v>1.456254381904533</v>
+        <v>1.457296856241442</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8308901300902303</v>
       </c>
       <c r="E37" t="n">
-        <v>3.236140607607692</v>
+        <v>3.235806256594873</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.023866683846537</v>
+        <v>-3.018720014326084</v>
       </c>
       <c r="G37" t="n">
-        <v>1.325908588588659</v>
+        <v>1.326638612634113</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7305122980953989</v>
       </c>
       <c r="E38" t="n">
-        <v>2.878659512933424</v>
+        <v>2.878078413793242</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.965647266221553</v>
+        <v>-2.962113219817508</v>
       </c>
       <c r="G38" t="n">
-        <v>1.180203089356425</v>
+        <v>1.180887851911061</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6399264836989499</v>
       </c>
       <c r="E39" t="n">
-        <v>2.53326761645188</v>
+        <v>2.533309957846516</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.827013509917635</v>
+        <v>-2.8230122481245</v>
       </c>
       <c r="G39" t="n">
-        <v>1.079808722577452</v>
+        <v>1.080433623160361</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.558411618663018</v>
       </c>
       <c r="E40" t="n">
-        <v>2.216387539089602</v>
+        <v>2.216123270385147</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.708464905176303</v>
+        <v>-2.70524549913585</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9592686122401209</v>
+        <v>0.9600219970550298</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4854989655818564</v>
       </c>
       <c r="E41" t="n">
-        <v>1.882965116857327</v>
+        <v>1.882870213731418</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.579472576440701</v>
+        <v>-2.576120306023975</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8373983980919718</v>
+        <v>0.8379882575206989</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4192817650778276</v>
       </c>
       <c r="E42" t="n">
-        <v>1.549996769581326</v>
+        <v>1.550348641171235</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.516802202210582</v>
+        <v>-2.512649095415992</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7212209114502758</v>
+        <v>0.721889613475912</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3584094850865596</v>
       </c>
       <c r="E43" t="n">
-        <v>1.285526578490306</v>
+        <v>1.285783546954306</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.437056565557285</v>
+        <v>-2.432480044816332</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6567422676595658</v>
+        <v>0.6577000592072019</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.301868529582933</v>
       </c>
       <c r="E44" t="n">
-        <v>1.018983119110196</v>
+        <v>1.018307116844105</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.320443984584498</v>
+        <v>-2.317026742027727</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5492038855717765</v>
+        <v>0.5499397498095945</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2482787284946963</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8022258395819812</v>
+        <v>0.7999832057143456</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.275635838698556</v>
+        <v>-2.272574847875966</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4421502394501688</v>
+        <v>0.4430029075352596</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.198135971587754</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5678311791155897</v>
+        <v>0.5656177462097721</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.184466055757944</v>
+        <v>-2.18160801161999</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3781548715775497</v>
+        <v>0.3777080968617316</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1504500849007535</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3691492949528248</v>
+        <v>0.3670088644515527</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.097330385692513</v>
+        <v>-2.093586822387423</v>
       </c>
       <c r="G47" t="n">
-        <v>0.296560084017117</v>
+        <v>0.2963074956973898</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1051577438160594</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2519191136375836</v>
+        <v>0.2486938674047663</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.991368855542905</v>
+        <v>-1.988529062006088</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2085162640391407</v>
+        <v>0.2077628792242318</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.06255826509748044</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1220901773458912</v>
+        <v>0.1196956984768009</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.894777184016704</v>
+        <v>-1.890975218787977</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1547456129471551</v>
+        <v>0.1547091117448824</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.0228204710180833</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01674624753873764</v>
+        <v>0.01444083160319281</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.811216441701862</v>
+        <v>-1.807116626662591</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08957490636135446</v>
+        <v>0.08890766438380918</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01312995425813413</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0745856007399651</v>
+        <v>-0.07674063172214635</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.681832820077897</v>
+        <v>-1.677734465086717</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03324333091791503</v>
+        <v>0.03181978402927906</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04502406543708676</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1833840043302086</v>
+        <v>-0.1840848274138448</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.562910443025293</v>
+        <v>-1.558041182642112</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.006997054515619616</v>
+        <v>-0.007116778459074129</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.07303193954676893</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3064937993075392</v>
+        <v>-0.3057812958391757</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.448198844666869</v>
+        <v>-1.44428007559087</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07554047219141939</v>
+        <v>-0.07515793959160132</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09789497872002179</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3393083801507122</v>
+        <v>-0.3397814357321666</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.375903103397434</v>
+        <v>-1.372223782208344</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1400526970882202</v>
+        <v>-0.139528539823584</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1205680220567245</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4697417763520408</v>
+        <v>-0.4689124690364047</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.333228817796354</v>
+        <v>-1.328759610590083</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1530281444721259</v>
+        <v>-0.1514352320049445</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1419947098656109</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5532755077772002</v>
+        <v>-0.5511452976125644</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.241708623313925</v>
+        <v>-1.239401747330289</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2006184119952949</v>
+        <v>-0.2000986348749314</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1625662375115094</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6566352322288088</v>
+        <v>-0.6534245864769006</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.201363114417844</v>
+        <v>-1.198916073817481</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2333307894721043</v>
+        <v>-0.2315086494546502</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1823469788437944</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6805990015448933</v>
+        <v>-0.6769591016542579</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.158443540737492</v>
+        <v>-1.157068175435856</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2682346991333677</v>
+        <v>-0.2664695009914591</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2012256367303872</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7724579271844141</v>
+        <v>-0.7701481311045966</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.14600393100295</v>
+        <v>-1.144320495554132</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3209088541090808</v>
+        <v>-0.3191071547648994</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.218847311914722</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8370051932353968</v>
+        <v>-0.8356298279337607</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102339732796235</v>
+        <v>-1.102133866015417</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3552418849667988</v>
+        <v>-0.3533657231699812</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.235000869522097</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9710814094235426</v>
+        <v>-0.968323378579816</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.097118600823145</v>
+        <v>-1.095347562488873</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3981424780219691</v>
+        <v>-0.396289676994606</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.249665414012675</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.094151783102419</v>
+        <v>-1.090954277783329</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.096521441153963</v>
+        <v>-1.095052632774509</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4412752187235939</v>
+        <v>-0.4390544855773218</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2625954121728574</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.152339079669403</v>
+        <v>-1.149613169883676</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.13543172277668</v>
+        <v>-1.134009635936135</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5016219264170323</v>
+        <v>-0.4990113604304875</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2738822314909655</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.24763057837065</v>
+        <v>-1.245479927532742</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.165291166283854</v>
+        <v>-1.163327401601582</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.528539373021025</v>
+        <v>-0.5266632112242073</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.283572879986677</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.382890893560523</v>
+        <v>-1.379246613525615</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.126737136395319</v>
+        <v>-1.124595245845956</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5534623939328365</v>
+        <v>-0.5515000892986552</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.291586831911421</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.442275429562052</v>
+        <v>-1.438453023660053</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.207655921689661</v>
+        <v>-1.204550399400298</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6081806162358219</v>
+        <v>-0.6062708733329133</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2981995528509294</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.540949859689935</v>
+        <v>-1.537378582059572</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.299713413869545</v>
+        <v>-1.29626624032691</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6513177370817194</v>
+        <v>-0.6500270545693561</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3037614049931326</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.561432874357293</v>
+        <v>-1.559474949867385</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.371122905947799</v>
+        <v>-1.367173475861891</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6752099640413493</v>
+        <v>-0.6738433590282588</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3090624909639346</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.625499784586367</v>
+        <v>-1.624368247315913</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.453190749089686</v>
+        <v>-1.449677873382959</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6676016534396241</v>
+        <v>-0.6671621789642606</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3147911133846997</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.680435554054898</v>
+        <v>-1.679103990195989</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.526631168062393</v>
+        <v>-1.523721292217212</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6936284707081625</v>
+        <v>-0.6929568485863445</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3211688566095908</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.716577584497252</v>
+        <v>-1.714521836785252</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.639466604623999</v>
+        <v>-1.635889486801273</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7375598577155144</v>
+        <v>-0.7357639985636967</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3280414136448166</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.695595233382803</v>
+        <v>-1.693843175673712</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.733822212498974</v>
+        <v>-1.730674348814975</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7592955936448722</v>
+        <v>-0.7575960976670544</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3350578710715748</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.68622318468726</v>
+        <v>-1.683773223990715</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.785653919726233</v>
+        <v>-1.782282668684325</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7775987565125037</v>
+        <v>-0.7772206040569583</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3425270142559818</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.636905680272546</v>
+        <v>-1.634642605731637</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.855483639770123</v>
+        <v>-1.852895704528988</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7772220641050491</v>
+        <v>-0.7760905268345949</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3499324502984373</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.547689441677569</v>
+        <v>-1.545808899736479</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.956233528259232</v>
+        <v>-1.954089447637733</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7791741484025941</v>
+        <v>-0.7782981195480488</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.356722940711199</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.430197911754056</v>
+        <v>-1.428015139858147</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.007998803298355</v>
+        <v>-2.005908014432174</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7649094785544162</v>
+        <v>-0.7645722074454162</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3620671669759706</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.291759071870275</v>
+        <v>-1.290506350608275</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.060407959545568</v>
+        <v>-2.058053631998978</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7517675856881469</v>
+        <v>-0.7512580289044197</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3642162157690165</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104440741999052</v>
+        <v>-1.104731291569143</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.08421477369188</v>
+        <v>-2.08250286730529</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7244252650896997</v>
+        <v>-0.724323061723336</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3629168729550918</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9387778454121876</v>
+        <v>-0.9403079758114599</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.082399933914881</v>
+        <v>-2.080136859373972</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6692923891288963</v>
+        <v>-0.6692573479747145</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3575643720715513</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.698913844797252</v>
+        <v>-0.6992686364833428</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.115480243510599</v>
+        <v>-2.11366686378169</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6133681671028204</v>
+        <v>-0.6122599906018207</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3481141927450998</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4411876158381394</v>
+        <v>-0.4418636181042301</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.11613215498319</v>
+        <v>-2.114714448286917</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5186212663394822</v>
+        <v>-0.5178226200337551</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3343349316195733</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.155697112382307</v>
+        <v>-0.1551656548772162</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.103204889186284</v>
+        <v>-2.101482762463057</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4504647614077733</v>
+        <v>-0.449509889956319</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3168004651242114</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1419117902280677</v>
+        <v>0.143154291153431</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.044076591624709</v>
+        <v>-2.040120591322392</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3365634897398038</v>
+        <v>-0.3358028046844404</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2957739491308648</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4823482834890672</v>
+        <v>0.4850610528419755</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.987109165237679</v>
+        <v>-1.982834144427498</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2557790288698256</v>
+        <v>-0.2548504382840076</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2716952796859923</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7854148458632585</v>
+        <v>0.7884050243534395</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.914246195284926</v>
+        <v>-1.910980067705563</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1824262127825725</v>
+        <v>-0.1815078425333909</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2450180638152134</v>
       </c>
       <c r="E86" t="n">
-        <v>1.102956325010719</v>
+        <v>1.105177058156991</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.867024589904711</v>
+        <v>-1.863186853497758</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1057941286831385</v>
+        <v>-0.1056189229122295</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2159796571776451</v>
       </c>
       <c r="E87" t="n">
-        <v>1.351776260615288</v>
+        <v>1.35261432821947</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.69869199538362</v>
+        <v>-1.692532052488076</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05899520722524201</v>
+        <v>-0.05887402323369659</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1854644670465601</v>
       </c>
       <c r="E88" t="n">
-        <v>1.575121277129683</v>
+        <v>1.575990005743773</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.519912026748031</v>
+        <v>-1.513137403606215</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01067682762483018</v>
+        <v>0.01063594627828474</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1541974038029317</v>
       </c>
       <c r="E89" t="n">
-        <v>1.758214227825815</v>
+        <v>1.76053570429036</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.293608952801456</v>
+        <v>-1.284737700601095</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06548849300563364</v>
+        <v>0.06553959468881546</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1227333537314055</v>
       </c>
       <c r="E90" t="n">
-        <v>1.938860137921585</v>
+        <v>1.941680950833221</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.067251857075517</v>
+        <v>-1.057104522843701</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0980242046634431</v>
+        <v>0.09814392860689761</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.09093310732235113</v>
       </c>
       <c r="E91" t="n">
-        <v>2.121817304145263</v>
+        <v>2.124835223549172</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8436688527223041</v>
+        <v>-0.8334543562783068</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08072263478617502</v>
+        <v>0.08096208267308404</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05944223651061175</v>
       </c>
       <c r="E92" t="n">
-        <v>2.240834584323777</v>
+        <v>2.243548813724776</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.644221903359903</v>
+        <v>-0.6337402181152695</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09403243318289871</v>
+        <v>0.0936104792846261</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02863545634509553</v>
       </c>
       <c r="E93" t="n">
-        <v>2.344911192388022</v>
+        <v>2.347385973902112</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3947683068838791</v>
+        <v>-0.3849334229435181</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04629324075445698</v>
+        <v>0.04532376882209361</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0009311863456478701</v>
       </c>
       <c r="E94" t="n">
-        <v>2.366306737112198</v>
+        <v>2.368523090114197</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2533816299045534</v>
+        <v>-0.2432634966345562</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01033809646773937</v>
+        <v>0.009571571220012299</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.02911079790231541</v>
       </c>
       <c r="E95" t="n">
-        <v>2.323471846221118</v>
+        <v>2.325045778063118</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.08524541185168952</v>
+        <v>-0.07629531705441919</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02703767461143242</v>
+        <v>-0.0277895993782504</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05517974716026994</v>
       </c>
       <c r="E96" t="n">
-        <v>2.225483638695963</v>
+        <v>2.227110132269235</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03428726530291475</v>
+        <v>0.04352060942982137</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06680354441542175</v>
+        <v>-0.06830447385287589</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.07901266308369576</v>
       </c>
       <c r="E97" t="n">
-        <v>2.074865077637821</v>
+        <v>2.077265396699275</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1118990416713485</v>
+        <v>0.1186897253421648</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1214925657565889</v>
+        <v>-0.1232300229847702</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.09969280023759361</v>
       </c>
       <c r="E98" t="n">
-        <v>1.882121209060782</v>
+        <v>1.884468966390964</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1816995607534206</v>
+        <v>0.1870082956119647</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1392321500611296</v>
+        <v>-0.1398847915577658</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1157919882644216</v>
       </c>
       <c r="E99" t="n">
-        <v>1.68341158398429</v>
+        <v>1.686406142618744</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1941961123635082</v>
+        <v>0.1987850435132342</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1352330783401306</v>
+        <v>-0.1351104343004943</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1256233796710416</v>
       </c>
       <c r="E100" t="n">
-        <v>1.521382747095697</v>
+        <v>1.525473801846423</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2203908351625011</v>
+        <v>0.2243665461140455</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1289796923667687</v>
+        <v>-0.1295695517954958</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1290289880633813</v>
       </c>
       <c r="E101" t="n">
-        <v>1.375707908873373</v>
+        <v>1.380530447717644</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2152164247283207</v>
+        <v>0.2178897727827745</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1104108007465918</v>
+        <v>-0.1109349580112281</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1240804567526723</v>
       </c>
       <c r="E102" t="n">
-        <v>1.189407232521514</v>
+        <v>1.195551114888058</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2300548934762258</v>
+        <v>0.2328567257626796</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.142902710961674</v>
+        <v>-0.1431363186562194</v>
       </c>
     </row>
   </sheetData>
